--- a/2022.xlsx
+++ b/2022.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2d89d0b3c91e082/Documents/ELN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2d89d0b3c91e082/Documents/R Work/former_soviet_union/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{834D2D32-2097-4EE5-AE7D-5BEF74EDBEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F22CDBB1-26EB-4965-B5BB-98FB33E12BEF}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{834D2D32-2097-4EE5-AE7D-5BEF74EDBEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A94FA6C-AB36-47A0-878C-766E19C2EA35}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{41983B7F-ECB2-4FBE-AD66-7AD44C697032}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
   <si>
     <t>Resolution</t>
   </si>
@@ -95,6 +95,42 @@
   </si>
   <si>
     <t>Data at: https://digitallibrary.un.org/search?ln=en&amp;cc=Voting%20Data&amp;p=&amp;f=&amp;rm=&amp;ln=en&amp;sf=&amp;so=d&amp;rg=50&amp;c=Voting%20Data&amp;c=&amp;of=hb&amp;fti=0&amp;fct__2=General%20Assembly&amp;fct__9=Vote&amp;fti=0&amp;fct__2=General%20Assembly&amp;fct__9=Vote&amp;fct__3=2022</t>
+  </si>
+  <si>
+    <t>GEO_Vote</t>
+  </si>
+  <si>
+    <t>KYR_Vote</t>
+  </si>
+  <si>
+    <t>MOL_Vote</t>
+  </si>
+  <si>
+    <t>TAJ_Vote</t>
+  </si>
+  <si>
+    <t>TMN_Vote</t>
+  </si>
+  <si>
+    <t>UZB_Vote</t>
+  </si>
+  <si>
+    <t>GEO_Dis</t>
+  </si>
+  <si>
+    <t>KYR_Dis</t>
+  </si>
+  <si>
+    <t>MOL_Dis</t>
+  </si>
+  <si>
+    <t>TAJ_Dis</t>
+  </si>
+  <si>
+    <t>TMN_Dis</t>
+  </si>
+  <si>
+    <t>UZB_Dis</t>
   </si>
 </sst>
 </file>
@@ -463,15 +499,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A178C11-BE0B-40BB-BF87-8F0D75A049B2}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,19 +533,55 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -522,20 +600,56 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0.5</v>
-      </c>
-      <c r="I2">
-        <v>0.5</v>
-      </c>
-      <c r="J2">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.5</v>
+      </c>
+      <c r="O2">
+        <v>0.5</v>
+      </c>
+      <c r="P2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0.5</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>0.5</v>
+      </c>
+      <c r="U2">
+        <v>0.5</v>
+      </c>
+      <c r="V2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -554,20 +668,56 @@
       <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0.5</v>
-      </c>
-      <c r="I3">
-        <v>0.5</v>
-      </c>
-      <c r="J3">
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.5</v>
+      </c>
+      <c r="O3">
+        <v>0.5</v>
+      </c>
+      <c r="P3">
+        <v>0.5</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0.5</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0.5</v>
+      </c>
+      <c r="U3">
+        <v>0.5</v>
+      </c>
+      <c r="V3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -586,20 +736,56 @@
       <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0.5</v>
-      </c>
-      <c r="I4">
-        <v>0.5</v>
-      </c>
-      <c r="J4">
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.5</v>
+      </c>
+      <c r="O4">
+        <v>0.5</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0.5</v>
+      </c>
+      <c r="V4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -618,20 +804,56 @@
       <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0.5</v>
-      </c>
-      <c r="I5">
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.5</v>
+      </c>
+      <c r="O5">
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="P5">
+        <v>0.5</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0.5</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0.5</v>
+      </c>
+      <c r="U5">
+        <v>0.5</v>
+      </c>
+      <c r="V5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -650,20 +872,56 @@
       <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="G6">
-        <v>0.5</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6">
+        <v>0.5</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.5</v>
+      </c>
+      <c r="T6">
+        <v>0.5</v>
+      </c>
+      <c r="U6">
+        <v>0.5</v>
+      </c>
+      <c r="V6">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
